--- a/biology/Médecine/Mycobacteriaceae/Mycobacteriaceae.xlsx
+++ b/biology/Médecine/Mycobacteriaceae/Mycobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mycobacteriaceae sont une famille de bacilles classés Gram positif d'après leur structure, mais en pratique difficilement colorables par la méthode de Gram, de l'ordre des Mycobacteriales. Une fois colorées par une technique adéquate, ces bactéries ne se décolorent ni sous l'action des acides forts ni sous celle de l'éthanol ce qui leur vaut la dénomination traditionnelle de bacilles acido-alcoolorésistants (ou BAAR).
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suite à l'amendement de la description de l'ordre des Mycobacteriales par Gupta en 2019[1], les Mycobacteriaceae font désormais partie de celui-ci[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suite à l'amendement de la description de l'ordre des Mycobacteriales par Gupta en 2019, les Mycobacteriaceae font désormais partie de celui-ci.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Propriétés d'enveloppe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La propriété d'acido-alcoolo-résistance est liée à la structure même de leur paroi cellulaire qui forme une véritable enveloppe cireuse et protectrice du fait de sa richesse exceptionnelle en acides gras et lipides (23 % contre 1-2 % chez les autres germes).
 Le squelette de la paroi est composé de peptidoglycane (appelé aussi muréine) relié de façon covalente à un hétéroside : l'arabinogalactane, lui-même estérifié par des acides mycoliques, acides gras particuliers à très longue chaîne. Ils forment alors des cires.
@@ -580,13 +596,85 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ces bactéries sont intracellulaires facultatives et peuvent survivre un an dans les fèces des bovins et sur le sol.
-Habitat
-Elles se rencontrent dans la nature où elle vivent en saprophytes, mais également chez l'Homme et les animaux où elles se comportent soit en commensales soit en pathogènes. Quelques espèces sont pathogènes strictes pour l'homme et d'autres pour l'animal.
-Pouvoir pathogène
-Les mycobactéries pathogènes strictes sont responsables de maladies spécifiques :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces bactéries sont intracellulaires facultatives et peuvent survivre un an dans les fèces des bovins et sur le sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles se rencontrent dans la nature où elle vivent en saprophytes, mais également chez l'Homme et les animaux où elles se comportent soit en commensales soit en pathogènes. Quelques espèces sont pathogènes strictes pour l'homme et d'autres pour l'animal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pouvoir pathogène</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les mycobactéries pathogènes strictes sont responsables de maladies spécifiques :
 Mycobacterium leprae est responsable de la lèpre ;
 Mycobacterium ulcerans est responsable de l'ulcère de Buruli, maladie classée parmi les maladies tropicales négligées par l'OMS ;
 Les quatre espèces M. tuberculosis, M. bovis, M. canetti et M. africanum sont regroupées sous le nom de bacilles tuberculeux et sont responsables de la tuberculose (on désigne parfois M. tuberculosis comme un synonyme de bacille tuberculeux, mais il s'agit bien d'une espèce à part entière) ;
@@ -597,37 +685,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Caractères morphologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morphologie microscopique
-Les mycobactéries se présentent comme des bacilles fins, légèrement incurvés voire ramifiés. Ils sont immobiles, dépourvus de spores.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Morphologie microscopique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mycobactéries se présentent comme des bacilles fins, légèrement incurvés voire ramifiés. Ils sont immobiles, dépourvus de spores.
 Ils n'ont pas de capsule à proprement parler.
-Coloration
-Ces bactéries se colorent très mal par les techniques conventionnelles, leur paroi riche en lipides rendant difficile la pénétration des colorants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractères morphologiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coloration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces bactéries se colorent très mal par les techniques conventionnelles, leur paroi riche en lipides rendant difficile la pénétration des colorants.
 Après coloration de Gram elles apparaissent quelquefois Gram positif mais sont le plus souvent non observables. Cette coloration classique ne présente donc pas d'intérêt pour leur étude.
 Des techniques spéciales ont été mises au point pour mettre en évidence le caractère d'acido-alcoolo-résistance, c'est la technique de référence de Ziehl-Neelsen où les bacilles colorés à chaud par la fuchsine de Ziehl conservent alors leur coloration rouge sous l'action combinée d'un acide fort et d'alcool. C'est une coloration qui peut être faite en 20 min environ (15 minutes de fuschine, puis 3 fois 1 min de la liqueur d'Armand).
 D'autres colorations ont aussi fait leur apparition : la coloration de Kinyoun et la coloration à l'auramine. L'interprétation des résultats ne doit pas être confondue avec ceux d'une coloration de gram. À la coloration de gram, le résultat pour une bactérie gram + est violet alors qu'avec la coloration de Kinyoun, le résultat pour un gram + est rose.
@@ -635,31 +763,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycobactéries se différencient fondamentalement par leurs caractères structuraux :
 Les bacilles tuberculeux (Mycobacterium tuberculosis, M. bovis, M. africanum) ne cultivent que sur milieux adaptés aux mycobactéries (milieu Lowenstein-Jensen), incubés à 37 °C; les cultures sont lentes et non pigmentées (21 jours d'incubation minimum).
@@ -670,31 +800,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Caractéristiques biochimiques et génétiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycobactéries sont des aérobies strictes, parfois microaérophiles à l'isolement.
 Elles sont très résistantes à la dessiccation allant jusqu'à quelques années de survie à l'état desséché et au froid.
@@ -705,34 +837,36 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La révision du genre Mycobacterium proposée en 2018 par R.S. Gupta et al. sur la base de techniques de phylogénétique moléculaire s'est répercutée en amont sur la famille des Mycobacteriaceae[3]. La création de quatre nouveaux genres (supposés monophylétiques) a permis de recevoir un grand nombre d'espèces exclues du genre Mycobacterium, lequel a été conservé avec un périmètre réduit.
-Selon la LPSN  (26 novembre 2022)[4] la famille des Mycobacteriaceae inclut désormais les genres suivants :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La révision du genre Mycobacterium proposée en 2018 par R.S. Gupta et al. sur la base de techniques de phylogénétique moléculaire s'est répercutée en amont sur la famille des Mycobacteriaceae. La création de quatre nouveaux genres (supposés monophylétiques) a permis de recevoir un grand nombre d'espèces exclues du genre Mycobacterium, lequel a été conservé avec un périmètre réduit.
+Selon la LPSN  (26 novembre 2022) la famille des Mycobacteriaceae inclut désormais les genres suivants :
 Bactoderma Tepper &amp; Korshunova 1973
 Mycobacterium Lehman &amp; Neumann 1896 – genre type
 Mycolicibacter Gupta et al. 2018
@@ -740,7 +874,7 @@
 Mycolicibacterium Gupta et al. 2018
 Mycobacteroides Gupta et al. 2018
 Stibiobacter Lyalikova 1974
-Bien que la publication des noms issus de ce remaniement ait été réalisée en conformité avec les critères de validité habituels dans ce domaine[5], il n'a pas rencontré l'adhésion de l'ensemble de la communauté scientifique. Certains cliniciens et biologistes médicaux, sans remettre en cause la validité du travail de ces auteurs, y voient une source de confusion et soulignent que les anciennes dénominations demeurent applicables[6],[7].
+Bien que la publication des noms issus de ce remaniement ait été réalisée en conformité avec les critères de validité habituels dans ce domaine, il n'a pas rencontré l'adhésion de l'ensemble de la communauté scientifique. Certains cliniciens et biologistes médicaux, sans remettre en cause la validité du travail de ces auteurs, y voient une source de confusion et soulignent que les anciennes dénominations demeurent applicables,.
 </t>
         </is>
       </c>
